--- a/realme/Others/7i Natore Price Protection.xlsx
+++ b/realme/Others/7i Natore Price Protection.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7965" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Shop" sheetId="1" r:id="rId1"/>
     <sheet name="In Dealer Stock" sheetId="2" r:id="rId2"/>
     <sheet name="after -sales issue" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'In Dealer Stock'!$A$1:$G$673</definedName>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="41">
   <si>
     <t>Area（Secondary Region）</t>
   </si>
@@ -143,9 +144,6 @@
     <t>Jilani Mobile</t>
   </si>
   <si>
-    <t>Tuhin Mobile</t>
-  </si>
-  <si>
     <t>Bismillah Mobile</t>
   </si>
   <si>
@@ -170,7 +168,10 @@
     <t>realme 7i Price Adjustment</t>
   </si>
   <si>
-    <t>Date: 17-03-2021</t>
+    <t>Date: 31-03-2021</t>
+  </si>
+  <si>
+    <t>Zilani Mobile</t>
   </si>
 </sst>
 </file>
@@ -344,9 +345,6 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -374,11 +372,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -648,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -664,46 +665,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="32.25">
-      <c r="B1" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:6" ht="19.5">
       <c r="B2" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:6" ht="19.5">
-      <c r="B3" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
+      <c r="B3" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:6" ht="31.5">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" ht="39.950000000000003" customHeight="1">
       <c r="A5" s="12" t="s">
@@ -718,7 +719,7 @@
       <c r="D5" s="13">
         <v>930</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:6" ht="39.950000000000003" customHeight="1">
       <c r="A6" s="12" t="s">
@@ -733,7 +734,7 @@
       <c r="D6" s="13">
         <v>930</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:6" ht="39.950000000000003" customHeight="1">
       <c r="A7" s="12" t="s">
@@ -748,7 +749,7 @@
       <c r="D7" s="13">
         <v>930</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:6" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="12" t="s">
@@ -763,7 +764,7 @@
       <c r="D8" s="13">
         <v>930</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:6" ht="39.950000000000003" customHeight="1">
       <c r="A9" s="12" t="s">
@@ -778,7 +779,7 @@
       <c r="D9" s="13">
         <v>930</v>
       </c>
-      <c r="E9" s="20"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:6" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="12" t="s">
@@ -793,7 +794,7 @@
       <c r="D10" s="13">
         <v>930</v>
       </c>
-      <c r="E10" s="20"/>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:6" ht="39.950000000000003" customHeight="1">
       <c r="A11" s="12" t="s">
@@ -808,7 +809,7 @@
       <c r="D11" s="13">
         <v>930</v>
       </c>
-      <c r="E11" s="20"/>
+      <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:6" ht="39.950000000000003" customHeight="1">
       <c r="A12" s="12" t="s">
@@ -818,147 +819,147 @@
         <v>31</v>
       </c>
       <c r="C12" s="10">
-        <v>861627040791293</v>
+        <v>861627040933358</v>
       </c>
       <c r="D12" s="13">
         <v>930</v>
       </c>
-      <c r="E12" s="20"/>
+      <c r="E12" s="19"/>
     </row>
     <row r="13" spans="1:6" ht="39.950000000000003" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C13" s="10">
-        <v>861627040791079</v>
+        <v>861627040935635</v>
       </c>
       <c r="D13" s="13">
         <v>930</v>
       </c>
-      <c r="E13" s="20"/>
+      <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:6" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C14" s="10">
-        <v>861627040933358</v>
+        <v>861627040895490</v>
       </c>
       <c r="D14" s="13">
         <v>930</v>
       </c>
-      <c r="E14" s="20"/>
+      <c r="E14" s="19"/>
     </row>
     <row r="15" spans="1:6" ht="39.950000000000003" customHeight="1">
       <c r="A15" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C15" s="10">
-        <v>861627040935635</v>
+        <v>861627041041136</v>
       </c>
       <c r="D15" s="13">
         <v>930</v>
       </c>
-      <c r="E15" s="20"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:6" ht="39.950000000000003" customHeight="1">
       <c r="A16" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C16" s="10">
-        <v>861627040895490</v>
+        <v>861627041084375</v>
       </c>
       <c r="D16" s="13">
         <v>930</v>
       </c>
-      <c r="E16" s="20"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A17" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="10">
-        <v>861627041041136</v>
+        <v>861627040931212</v>
       </c>
       <c r="D17" s="13">
         <v>930</v>
       </c>
-      <c r="E17" s="20"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A18" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" s="10">
-        <v>861627041084375</v>
+        <v>861627040897157</v>
       </c>
       <c r="D18" s="13">
         <v>930</v>
       </c>
-      <c r="E18" s="20"/>
+      <c r="E18" s="19"/>
     </row>
     <row r="19" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A19" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C19" s="10">
-        <v>861627040931212</v>
+        <v>861627040622159</v>
       </c>
       <c r="D19" s="13">
         <v>930</v>
       </c>
-      <c r="E19" s="20"/>
+      <c r="E19" s="19"/>
     </row>
     <row r="20" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C20" s="10">
-        <v>861627040897157</v>
+        <v>861627040891994</v>
       </c>
       <c r="D20" s="13">
         <v>930</v>
       </c>
-      <c r="E20" s="20"/>
+      <c r="E20" s="19"/>
     </row>
     <row r="21" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C21" s="10">
-        <v>861627040622159</v>
+        <v>861627040895250</v>
       </c>
       <c r="D21" s="13">
         <v>930</v>
       </c>
-      <c r="E21" s="20"/>
+      <c r="E21" s="19"/>
     </row>
     <row r="22" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A22" s="12" t="s">
@@ -968,75 +969,45 @@
         <v>12</v>
       </c>
       <c r="C22" s="10">
-        <v>861627040891994</v>
+        <v>861627041001478</v>
       </c>
       <c r="D22" s="13">
         <v>930</v>
       </c>
-      <c r="E22" s="20"/>
-    </row>
-    <row r="23" spans="1:5" ht="39.950000000000003" customHeight="1">
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75">
       <c r="A23" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="10">
-        <v>861627040895250</v>
-      </c>
-      <c r="D23" s="13">
-        <v>930</v>
-      </c>
-      <c r="E23" s="20"/>
-    </row>
-    <row r="24" spans="1:5" ht="39.950000000000003" customHeight="1">
+      <c r="B23" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="21">
+        <v>861627041133891</v>
+      </c>
+      <c r="D23" s="22">
+        <v>0</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75">
       <c r="A24" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="10">
-        <v>861627041001478</v>
-      </c>
-      <c r="D24" s="13">
-        <v>930</v>
-      </c>
-      <c r="E24" s="20"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75">
-      <c r="A25" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="21" t="s">
+      <c r="B24" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="22">
-        <v>861627041133891</v>
-      </c>
-      <c r="D25" s="23">
+      <c r="C24" s="21">
+        <v>861627040893339</v>
+      </c>
+      <c r="D24" s="22">
         <v>0</v>
       </c>
-      <c r="E25" s="24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75">
-      <c r="A26" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="22">
-        <v>861627040893339</v>
-      </c>
-      <c r="D26" s="23">
-        <v>0</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>34</v>
+      <c r="E24" s="23" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1056,7 +1027,7 @@
   <dimension ref="A1:G673"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1722,11 +1693,15 @@
     </row>
     <row r="35" spans="1:7" ht="15.75">
       <c r="C35" s="7"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="8">
+        <v>861627040791293</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="15.75">
       <c r="C36" s="7"/>
-      <c r="E36" s="8"/>
+      <c r="E36" s="8">
+        <v>861627040791079</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="15.75">
       <c r="C37" s="7"/>
@@ -4304,13 +4279,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="75" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" ht="26.45" customHeight="1">
       <c r="B2" s="5" t="s">
@@ -4332,4 +4307,313 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="32.25">
+      <c r="A1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+    </row>
+    <row r="2" spans="1:4" ht="19.5">
+      <c r="A2" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+    </row>
+    <row r="3" spans="1:4" ht="19.5">
+      <c r="A3" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+    </row>
+    <row r="4" spans="1:4" ht="31.5">
+      <c r="A4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="10">
+        <v>861627040891499</v>
+      </c>
+      <c r="C5" s="13">
+        <v>930</v>
+      </c>
+      <c r="D5" s="19"/>
+    </row>
+    <row r="6" spans="1:4" ht="30" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="10">
+        <v>861627041123470</v>
+      </c>
+      <c r="C6" s="13">
+        <v>930</v>
+      </c>
+      <c r="D6" s="19"/>
+    </row>
+    <row r="7" spans="1:4" ht="30" customHeight="1">
+      <c r="A7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="10">
+        <v>861627041062256</v>
+      </c>
+      <c r="C7" s="13">
+        <v>930</v>
+      </c>
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="1:4" ht="30" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="10">
+        <v>861627040933259</v>
+      </c>
+      <c r="C8" s="13">
+        <v>930</v>
+      </c>
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" spans="1:4" ht="30" customHeight="1">
+      <c r="A9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="10">
+        <v>861627040933176</v>
+      </c>
+      <c r="C9" s="13">
+        <v>930</v>
+      </c>
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="1:4" ht="30" customHeight="1">
+      <c r="A10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="10">
+        <v>861627040893917</v>
+      </c>
+      <c r="C10" s="13">
+        <v>930</v>
+      </c>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:4" ht="30" customHeight="1">
+      <c r="A11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="10">
+        <v>861627041101971</v>
+      </c>
+      <c r="C11" s="13">
+        <v>930</v>
+      </c>
+      <c r="D11" s="19"/>
+    </row>
+    <row r="12" spans="1:4" ht="30" customHeight="1">
+      <c r="A12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="10">
+        <v>861627040933358</v>
+      </c>
+      <c r="C12" s="13">
+        <v>930</v>
+      </c>
+      <c r="D12" s="19"/>
+    </row>
+    <row r="13" spans="1:4" ht="30" customHeight="1">
+      <c r="A13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="10">
+        <v>861627040935635</v>
+      </c>
+      <c r="C13" s="13">
+        <v>930</v>
+      </c>
+      <c r="D13" s="19"/>
+    </row>
+    <row r="14" spans="1:4" ht="30" customHeight="1">
+      <c r="A14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="10">
+        <v>861627040895490</v>
+      </c>
+      <c r="C14" s="13">
+        <v>930</v>
+      </c>
+      <c r="D14" s="19"/>
+    </row>
+    <row r="15" spans="1:4" ht="30" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="10">
+        <v>861627041041136</v>
+      </c>
+      <c r="C15" s="13">
+        <v>930</v>
+      </c>
+      <c r="D15" s="19"/>
+    </row>
+    <row r="16" spans="1:4" ht="30" customHeight="1">
+      <c r="A16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="10">
+        <v>861627041084375</v>
+      </c>
+      <c r="C16" s="13">
+        <v>930</v>
+      </c>
+      <c r="D16" s="19"/>
+    </row>
+    <row r="17" spans="1:4" ht="30" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="10">
+        <v>861627040931212</v>
+      </c>
+      <c r="C17" s="13">
+        <v>930</v>
+      </c>
+      <c r="D17" s="19"/>
+    </row>
+    <row r="18" spans="1:4" ht="30" customHeight="1">
+      <c r="A18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="10">
+        <v>861627040897157</v>
+      </c>
+      <c r="C18" s="13">
+        <v>930</v>
+      </c>
+      <c r="D18" s="19"/>
+    </row>
+    <row r="19" spans="1:4" ht="30" customHeight="1">
+      <c r="A19" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="10">
+        <v>861627040622159</v>
+      </c>
+      <c r="C19" s="13">
+        <v>930</v>
+      </c>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="20" spans="1:4" ht="30" customHeight="1">
+      <c r="A20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="10">
+        <v>861627040891994</v>
+      </c>
+      <c r="C20" s="13">
+        <v>930</v>
+      </c>
+      <c r="D20" s="19"/>
+    </row>
+    <row r="21" spans="1:4" ht="30" customHeight="1">
+      <c r="A21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="10">
+        <v>861627040895250</v>
+      </c>
+      <c r="C21" s="13">
+        <v>930</v>
+      </c>
+      <c r="D21" s="19"/>
+    </row>
+    <row r="22" spans="1:4" ht="30" customHeight="1">
+      <c r="A22" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="10">
+        <v>861627041001478</v>
+      </c>
+      <c r="C22" s="13">
+        <v>930</v>
+      </c>
+      <c r="D22" s="19"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75">
+      <c r="A23" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="21">
+        <v>861627041133891</v>
+      </c>
+      <c r="C23" s="22">
+        <v>0</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75">
+      <c r="A24" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="21">
+        <v>861627040893339</v>
+      </c>
+      <c r="C24" s="22">
+        <v>0</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>